--- a/create_forecast_basic/future/inputs_outputs.xlsx
+++ b/create_forecast_basic/future/inputs_outputs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">discription</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">C:\Users\dpere\Documents\JTMT\forecast_git\create_forecast_basic\future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAZ_V4_date</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -164,7 +167,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>240404</v>
+      </c>
+    </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
